--- a/biology/Origine et évolution du vivant/Sarcopterygii/Sarcopterygii.xlsx
+++ b/biology/Origine et évolution du vivant/Sarcopterygii/Sarcopterygii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Sarcopterygii (sarcoptérygiens en langage courant) sont l'un des deux taxons majeurs des vertébrés osseux comprenant quelques genres basaux (aujourd'hui éteints), les actinistiens (les cœlacanthes et leurs parents éteints) ainsi que les rhipidistiens (comprenant les dipneustes, les tétrapodes ainsi que les groupes apparentés aujourd'hui disparus). Ce groupe monophylétique comprend donc à la fois les poissons à nageoires charnues ou poissons à membres charnus et les tétrapodes, dont l'origine évolutive trouve ses prémices dans certains caractères dérivés communs des sarcoptérygiens.
 </t>
@@ -511,7 +523,9 @@
           <t>Composition du mot</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce terme a été formé à partir du grec ancien σάρξ / sárx, au génitif σαρκός / sarkós, « chair » et πτέρυξ / ptérux, « aile, nageoire ».
 </t>
@@ -542,7 +556,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Nageoires lobées et articulation monobasale. Chaque lobe est soutenu par un squelette interne d'os qui s'articulent entre eux puis avec une robuste ceinture pectorale ou pelvienne.
 Joint intracrânial : fissure divisant le crâne en deux moitiés, antérieure et postérieure.
@@ -581,9 +597,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Liste des ordres actuels selon ITIS[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Liste des ordres actuels selon ITIS :
 classe/sous-classe des Coelacanthi
 ordre des Coelacanthiformes (Cœlacanthes)
 classe/sous-classe des Dipnoi (Dipneustes)
@@ -616,9 +634,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des grands groupes actuels des Vertébrés d'après Betancur-R et al. (2017)[3] et Heimberg et al. (2010)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des grands groupes actuels des Vertébrés d'après Betancur-R et al. (2017) et Heimberg et al. (2010) :
 </t>
         </is>
       </c>
@@ -647,7 +667,9 @@
           <t>Place des sarcoptérygiens</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 v · mLes sarcoptérygiens dans l'évolution des types animaux
